--- a/docs/report_results.xlsx
+++ b/docs/report_results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,17 +9,68 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+  <si>
+    <t>אלגוריתם 1</t>
+  </si>
+  <si>
+    <t>שלנו</t>
+  </si>
+  <si>
+    <t>אלגוריתם 2</t>
+  </si>
+  <si>
+    <t>_comb_all_BM2_.csv</t>
+  </si>
+  <si>
+    <t>קבצ פלט</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:95:23:57</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:96:05:77</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:16:05:78</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:15:23:58</t>
+  </si>
+  <si>
+    <t>3c:52:82:ef:d4:56</t>
+  </si>
+  <si>
+    <t>e4:95:6e:40:87:1a</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:16:f1:48</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -32,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +91,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +421,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32.104079300627298</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35.208944939192598</v>
+      </c>
+      <c r="F5" s="1">
+        <v>693.21060029618604</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32.104433960398701</v>
+      </c>
+      <c r="H5" s="1">
+        <v>35.210832068376803</v>
+      </c>
+      <c r="I5" s="1">
+        <v>694.78030591279196</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32.104904790749401</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35.211247446727803</v>
+      </c>
+      <c r="F6" s="1">
+        <v>697.43116923976095</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32.103053060000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35.209784460000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32.104710774043298</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35.210309820449197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>700.70591146572497</v>
+      </c>
+      <c r="G7" s="1">
+        <v>32.103856012910001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35.209093699346397</v>
+      </c>
+      <c r="I7" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.104052468440699</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35.209126850618802</v>
+      </c>
+      <c r="F8" s="1">
+        <v>689.97278871187302</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32.1029604932571</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35.209699133932197</v>
+      </c>
+      <c r="I8" s="1">
+        <v>702.14287995796701</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32.102187643065001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35.209290271017501</v>
+      </c>
+      <c r="F9" s="1">
+        <v>694.164942425709</v>
+      </c>
+      <c r="G9" s="1">
+        <v>32.102380846733197</v>
+      </c>
+      <c r="H9" s="1">
+        <v>35.210006539970799</v>
+      </c>
+      <c r="I9" s="1">
+        <v>712.19374266854902</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>32.103009210000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35.2096084</v>
+      </c>
+      <c r="F10" s="1">
+        <v>701</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32.104814920000003</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35.211453900000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32.102257887048999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35.209224656135603</v>
+      </c>
+      <c r="F11" s="1">
+        <v>693.87388646353895</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32.104753430000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35.210074740000003</v>
+      </c>
+      <c r="I11" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32.102684896190503</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35.2097954194316</v>
+      </c>
+      <c r="F17" s="1">
+        <v>707.82804725910898</v>
+      </c>
+      <c r="G17" s="1">
+        <v>32.103156517673902</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35.2095290500204</v>
+      </c>
+      <c r="I17" s="1">
+        <v>690.80821434733502</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>32.103718923267103</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35.2103601271846</v>
+      </c>
+      <c r="F18" s="1">
+        <v>697.52993904625305</v>
+      </c>
+      <c r="G18" s="1">
+        <v>32.103371135376499</v>
+      </c>
+      <c r="H18" s="1">
+        <v>35.209710253406399</v>
+      </c>
+      <c r="I18" s="1">
+        <v>704.100695841272</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32.103539043883202</v>
+      </c>
+      <c r="E19" s="1">
+        <v>35.209946390164198</v>
+      </c>
+      <c r="F19" s="1">
+        <v>710.47704989135002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>32.103709233473602</v>
+      </c>
+      <c r="H19" s="1">
+        <v>35.209461735434303</v>
+      </c>
+      <c r="I19" s="1">
+        <v>698.19771675153595</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32.103724904733497</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35.210207423797598</v>
+      </c>
+      <c r="F20" s="1">
+        <v>710.78306081931601</v>
+      </c>
+      <c r="G20" s="1">
+        <v>32.103841037977702</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35.209019460784397</v>
+      </c>
+      <c r="I20" s="1">
+        <v>684.64886412344595</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32.104759929925898</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35.210309410163198</v>
+      </c>
+      <c r="F21" s="1">
+        <v>687.28630716266605</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32.103585082541898</v>
+      </c>
+      <c r="H21" s="1">
+        <v>35.210396203216398</v>
+      </c>
+      <c r="I21" s="1">
+        <v>699.193327757254</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>32.102505779588199</v>
+      </c>
+      <c r="E22" s="1">
+        <v>35.209555310518901</v>
+      </c>
+      <c r="F22" s="1">
+        <v>690.85561032183205</v>
+      </c>
+      <c r="G22" s="1">
+        <v>32.103698614805801</v>
+      </c>
+      <c r="H22" s="1">
+        <v>35.210175411817801</v>
+      </c>
+      <c r="I22" s="1">
+        <v>710.74852344698797</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>32.103422735825902</v>
+      </c>
+      <c r="E23" s="1">
+        <v>35.209711901095503</v>
+      </c>
+      <c r="F23" s="1">
+        <v>704.24502290678004</v>
+      </c>
+      <c r="G23" s="1">
+        <v>32.104666270000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>35.209909359999997</v>
+      </c>
+      <c r="I23" s="1">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>